--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/2.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/2.xlsx
@@ -49,21 +49,18 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
@@ -112,45 +109,45 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
@@ -220,7 +217,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -241,12 +238,12 @@
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__12,num_of_mults_and_divs__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
@@ -259,16 +256,16 @@
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -289,18 +286,18 @@
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_mults_and_divs__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_mults_and_divs__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_mults_and_divs__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_mults_and_divs__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
@@ -316,7 +313,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -337,12 +334,12 @@
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
@@ -358,21 +355,21 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__2,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
@@ -385,12 +382,12 @@
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__7,num_of_equals__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
